--- a/log/log_201608040114_刘忠亚.xlsx
+++ b/log/log_201608040114_刘忠亚.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\TANWANLANYUE\src\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2DF22989-A841-44DD-A189-14375F7B3005}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{765FFE77-B6B7-45D1-8099-C04525390F8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>日期</t>
   </si>
@@ -291,9 +291,6 @@
     <t xml:space="preserve">             6月22日·</t>
   </si>
   <si>
-    <t xml:space="preserve">             6月23日·</t>
-  </si>
-  <si>
     <t>13:00-16：:12</t>
   </si>
   <si>
@@ -302,6 +299,104 @@
   </si>
   <si>
     <t>初完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同小组成员讨论接下来的计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步共识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             6月25日·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号申请完成</t>
+  </si>
+  <si>
+    <t>了解Jenkins，与组长商量前端框架</t>
+  </si>
+  <si>
+    <t>确定框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解优劣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计需要做的文档，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未全部完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:01</t>
+  </si>
+  <si>
+    <t>13:00-16:02</t>
+  </si>
+  <si>
+    <t>13:00-16:03</t>
+  </si>
+  <si>
+    <t>13:00-16:04</t>
+  </si>
+  <si>
+    <t>添加代码注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始编写项目总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与组员沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总结结尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -808,21 +903,160 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
